--- a/MainTop/09.07.2024/печать.xlsx
+++ b/MainTop/09.07.2024/печать.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Термонаклейка Цветы Магнолия белые Botanical</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Цветы Пионы розовый Botanical</t>
+    <t xml:space="preserve">Термонаклейка Цветы Пионы розовый Peonies</t>
   </si>
   <si>
     <r>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Термонаклейка Цветы Магнолия 3шт розовые</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Цветы Розы 3шт розовые</t>
+    <t xml:space="preserve">Термонаклейка Цветы Тюльпаны 3шт розовые</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Колибри 2шт</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Термонаклейка Аист оранжевый круг</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Цветы Розы 5шт белые</t>
+    <t xml:space="preserve">Термонаклейка Цветы Тюльпаны 5шт белые</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Фламинго крупный план</t>
@@ -175,12 +175,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,7 +272,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,8 +297,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -302,7 +306,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -325,8 +329,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -349,8 +353,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
